--- a/evaluate/human/multiwoz.xlsx
+++ b/evaluate/human/multiwoz.xlsx
@@ -454,7 +454,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="16" customWidth="1" min="1" max="1"/>
+    <col width="15" customWidth="1" min="1" max="1"/>
     <col width="100" customWidth="1" min="2" max="2"/>
     <col width="100" customWidth="1" min="3" max="3"/>
     <col width="100" customWidth="1" min="4" max="4"/>

--- a/evaluate/human/multiwoz.xlsx
+++ b/evaluate/human/multiwoz.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="517">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -2012,18 +2012,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:J101"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C34" activePane="bottomRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A34" activeCellId="0" sqref="A34"/>
-      <selection pane="bottomRight" activeCell="A41" activeCellId="0" sqref="A41"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="C53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="B56" activeCellId="0" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3192,7 +3190,9 @@
       <c r="F41" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="G41" s="5"/>
+      <c r="G41" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="H41" s="5"/>
       <c r="I41" s="5"/>
       <c r="J41" s="5"/>
@@ -3216,12 +3216,16 @@
       <c r="F42" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
+      <c r="G42" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="H42" s="5" t="s">
+        <v>39</v>
+      </c>
       <c r="I42" s="5"/>
       <c r="J42" s="5"/>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="5" t="s">
         <v>233</v>
       </c>
@@ -3240,7 +3244,9 @@
       <c r="F43" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="G43" s="5"/>
+      <c r="G43" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="H43" s="5"/>
       <c r="I43" s="5"/>
       <c r="J43" s="5"/>
@@ -3264,7 +3270,9 @@
       <c r="F44" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="G44" s="5"/>
+      <c r="G44" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="H44" s="5"/>
       <c r="I44" s="5"/>
       <c r="J44" s="5"/>
@@ -3288,12 +3296,16 @@
       <c r="F45" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="G45" s="5"/>
-      <c r="H45" s="5"/>
+      <c r="G45" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H45" s="5" t="s">
+        <v>131</v>
+      </c>
       <c r="I45" s="5"/>
       <c r="J45" s="5"/>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="5" t="s">
         <v>250</v>
       </c>
@@ -3312,8 +3324,12 @@
       <c r="F46" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="G46" s="5"/>
-      <c r="H46" s="5"/>
+      <c r="G46" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" s="5" t="n">
+        <v>3</v>
+      </c>
       <c r="I46" s="5"/>
       <c r="J46" s="5"/>
     </row>
@@ -3336,8 +3352,12 @@
       <c r="F47" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="G47" s="5"/>
-      <c r="H47" s="5"/>
+      <c r="G47" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H47" s="5" t="n">
+        <v>2</v>
+      </c>
       <c r="I47" s="5"/>
       <c r="J47" s="5"/>
     </row>
@@ -3360,7 +3380,9 @@
       <c r="F48" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="G48" s="5"/>
+      <c r="G48" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="H48" s="5"/>
       <c r="I48" s="5"/>
       <c r="J48" s="5"/>
@@ -3384,8 +3406,12 @@
       <c r="F49" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="G49" s="5"/>
-      <c r="H49" s="5"/>
+      <c r="G49" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H49" s="5" t="s">
+        <v>131</v>
+      </c>
       <c r="I49" s="5"/>
       <c r="J49" s="5"/>
     </row>
@@ -3408,8 +3434,12 @@
       <c r="F50" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="G50" s="5"/>
-      <c r="H50" s="5"/>
+      <c r="G50" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H50" s="5" t="s">
+        <v>64</v>
+      </c>
       <c r="I50" s="5"/>
       <c r="J50" s="5"/>
     </row>
@@ -3432,7 +3462,9 @@
       <c r="F51" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="G51" s="5"/>
+      <c r="G51" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="H51" s="5"/>
       <c r="I51" s="5"/>
       <c r="J51" s="5"/>
@@ -3456,7 +3488,9 @@
       <c r="F52" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="G52" s="5"/>
+      <c r="G52" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="H52" s="5"/>
       <c r="I52" s="5"/>
       <c r="J52" s="5"/>
@@ -3480,9 +3514,15 @@
       <c r="F53" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="G53" s="5"/>
-      <c r="H53" s="5"/>
-      <c r="I53" s="5"/>
+      <c r="G53" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H53" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="I53" s="5" t="n">
+        <v>3</v>
+      </c>
       <c r="J53" s="5"/>
     </row>
     <row r="54" customFormat="false" ht="69.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3504,10 +3544,18 @@
       <c r="F54" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="G54" s="5"/>
-      <c r="H54" s="5"/>
-      <c r="I54" s="5"/>
-      <c r="J54" s="5"/>
+      <c r="G54" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="H54" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="I54" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="J54" s="5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="55" customFormat="false" ht="69.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="5" t="s">
@@ -3528,12 +3576,18 @@
       <c r="F55" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="G55" s="5"/>
-      <c r="H55" s="5"/>
-      <c r="I55" s="5"/>
+      <c r="G55" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="H55" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I55" s="5" t="n">
+        <v>2</v>
+      </c>
       <c r="J55" s="5"/>
     </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="5" t="s">
         <v>300</v>
       </c>
@@ -3552,8 +3606,12 @@
       <c r="F56" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G56" s="5"/>
-      <c r="H56" s="5"/>
+      <c r="G56" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="H56" s="5" t="s">
+        <v>88</v>
+      </c>
       <c r="I56" s="5"/>
       <c r="J56" s="5"/>
     </row>
@@ -3576,8 +3634,12 @@
       <c r="F57" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="G57" s="5"/>
-      <c r="H57" s="5"/>
+      <c r="G57" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H57" s="5" t="s">
+        <v>131</v>
+      </c>
       <c r="I57" s="5"/>
       <c r="J57" s="5"/>
     </row>
@@ -3600,8 +3662,12 @@
       <c r="F58" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="G58" s="5"/>
-      <c r="H58" s="5"/>
+      <c r="G58" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" s="5" t="n">
+        <v>3</v>
+      </c>
       <c r="I58" s="5"/>
       <c r="J58" s="5"/>
     </row>
